--- a/statics/media/import_asset.xlsx
+++ b/statics/media/import_asset.xlsx
@@ -77,7 +77,7 @@
     <t>root</t>
   </si>
   <si>
-    <t>Oneday0313</t>
+    <t>admin</t>
   </si>
   <si>
     <t>ELK 日志服务器</t>
@@ -92,13 +92,10 @@
     <t>2019-10-24</t>
   </si>
   <si>
-    <t>李祖祥</t>
-  </si>
-  <si>
-    <t>13432089040</t>
-  </si>
-  <si>
-    <t>13432089040@139.com</t>
+    <t>小贰</t>
+  </si>
+  <si>
+    <t>100860@139.com</t>
   </si>
   <si>
     <t>192.168.1.89</t>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>2019-10-25</t>
+  </si>
+  <si>
+    <t>10086@139.com</t>
   </si>
 </sst>
 </file>
@@ -118,10 +118,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -142,23 +142,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,9 +165,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,43 +177,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,13 +197,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -270,8 +211,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -281,6 +259,28 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,6 +301,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -325,78 +457,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -422,66 +482,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,16 +596,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,143 +625,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="48" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,6 +770,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,7 +1126,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1221,16 +1224,16 @@
       <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="2">
+        <v>10086</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>16</v>
@@ -1248,7 +1251,7 @@
         <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>22</v>
@@ -1257,10 +1260,10 @@
         <v>1025</v>
       </c>
       <c r="J3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>16</v>
@@ -1268,14 +1271,18 @@
       <c r="M3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>27</v>
+      <c r="N3" s="2">
+        <v>10086</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="O2" r:id="rId1" display="100860@139.com"/>
+    <hyperlink ref="O3" r:id="rId2" display="10086@139.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/statics/media/import_asset.xlsx
+++ b/statics/media/import_asset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="22728" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="资产清单" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>IP地址</t>
   </si>
@@ -62,10 +62,10 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>192.168.1.88</t>
-  </si>
-  <si>
-    <t>木头人</t>
+    <t>114.116.85.200</t>
+  </si>
+  <si>
+    <t>华为</t>
   </si>
   <si>
     <t>虚拟机</t>
@@ -77,40 +77,52 @@
     <t>root</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>ELK 日志服务器</t>
+    <t>Bzh@201715210100</t>
+  </si>
+  <si>
+    <t>zabbix+运维管理服务器</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>2018-10-24</t>
-  </si>
-  <si>
-    <t>2019-10-24</t>
-  </si>
-  <si>
-    <t>小贰</t>
-  </si>
-  <si>
-    <t>100860@139.com</t>
-  </si>
-  <si>
-    <t>192.168.1.89</t>
-  </si>
-  <si>
-    <t>备份服务器</t>
-  </si>
-  <si>
-    <t>2018-10-25</t>
-  </si>
-  <si>
-    <t>2019-10-25</t>
-  </si>
-  <si>
-    <t>10086@139.com</t>
+    <t>yz10001</t>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+  </si>
+  <si>
+    <t>2019-06-28</t>
+  </si>
+  <si>
+    <t>frankie</t>
+  </si>
+  <si>
+    <t>bzh@bzh.com</t>
+  </si>
+  <si>
+    <t>111.230.238.173</t>
+  </si>
+  <si>
+    <t>腾讯</t>
+  </si>
+  <si>
+    <t>地铁</t>
+  </si>
+  <si>
+    <t>hey7512199!</t>
+  </si>
+  <si>
+    <t>地铁进销存服务器</t>
+  </si>
+  <si>
+    <t>yz10002</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2019-01-01</t>
   </si>
 </sst>
 </file>
@@ -118,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -144,7 +156,22 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,7 +193,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,16 +229,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,13 +252,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -226,7 +261,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,15 +277,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,37 +292,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,25 +313,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,157 +463,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,8 +525,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,22 +550,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,8 +558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,6 +579,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -597,13 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +625,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,7 +637,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -634,145 +646,152 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="48" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="48" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1123,165 +1142,197 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="6" width="18" customWidth="1"/>
+    <col min="1" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="18" style="1" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
     <col min="8" max="12" width="18" customWidth="1"/>
     <col min="13" max="15" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:15">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="15.6" spans="1:15">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="2">
-        <v>1024</v>
-      </c>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="2">
-        <v>10086</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="N2" s="4">
+        <v>15039198123</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:15">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="15.6" spans="1:15">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="4">
+        <v>15039198123</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1025</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="2">
-        <v>10086</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="4" ht="15.6" spans="13:15">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" ht="15.6" spans="13:15">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" ht="15.6" spans="13:15">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" ht="15.6" spans="13:15">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" ht="15.6" spans="13:15">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" ht="15.6" spans="13:15">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" display="100860@139.com"/>
-    <hyperlink ref="O3" r:id="rId2" display="10086@139.com"/>
+    <hyperlink ref="O2" r:id="rId1" display="bzh@bzh.com" tooltip="mailto:bzh@bzh.com"/>
+    <hyperlink ref="O3" r:id="rId1" display="bzh@bzh.com" tooltip="mailto:bzh@bzh.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="Bzh@201715210100"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
